--- a/LC_Area_Meso.xlsx
+++ b/LC_Area_Meso.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MassLynx\Default.pro\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/nicolas_beriot_wur_nl/Documents/PhD/Colaboration/MSanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB20A6C-F78A-43F0-B359-BEB0CF053927}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DBB20A6C-F78A-43F0-B359-BEB0CF053927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3521DED3-5363-4F48-A922-1FE83CA72D66}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="200724" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4802,11 +4805,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8496974-574B-47CD-A863-C9663AF309F1}">
   <dimension ref="A1:N723"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -41135,7 +41142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB39950-22E1-4F8E-BD42-DBBBAAFFE252}">
   <dimension ref="A1:J843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+    <sheetView topLeftCell="A418" workbookViewId="0">
       <selection activeCell="G434" sqref="G434:H434"/>
     </sheetView>
   </sheetViews>
@@ -57786,7 +57793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V723"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
